--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -435,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -572,110 +572,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>vublqiykamvowtm@gmail.com</t>
+          <t>lhmijojyjrojduc@gmail.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>amdsxZSDSE5</t>
+          <t>jzzbjELMQY5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bbribuqwofeuoks@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>rxwhkIBINI5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>fhtflfwalirlwzg@gmail.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>cfvtxMQFRE5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>miyiiourtdlbeyn@gmail.com</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>oifdwDSRYH5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>hveymxbivtutanq@gmail.com</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>pyzbpVRVWJ5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>pass</t>
         </is>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -587,6 +587,28 @@
           <t>pass</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vmxtbtigbpuvokh@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>vbgpuSZVRQ5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
